--- a/data/trans_bre/P8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>32,28%</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,87%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>10,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,94%</t>
+          <t>60,27%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>47,66%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 6,24</t>
+          <t>-3,12; 7,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 4,8</t>
+          <t>-4,91; 6,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 6,48</t>
+          <t>-1,63; 9,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,73</t>
+          <t>-2,78; 9,15</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 148,72</t>
+          <t>-4,66; 9,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,99; 115,31</t>
+          <t>-43,11; 307,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; 171,21</t>
+          <t>-53,42; 173,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 152,39</t>
+          <t>-28,63; 320,2</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-30,65; 256,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-38,78; 166,94</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,9</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-2,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-42,56%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-52,24%</t>
+          <t>-9,73%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>-25,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-22,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 5,5</t>
+          <t>-9,62; 5,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 0,59</t>
+          <t>-11,53; 5,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,86; -0,8</t>
+          <t>-12,95; 4,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,05; -1,04</t>
+          <t>-10,45; 3,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-59,62; 126,21</t>
+          <t>-9,35; 7,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-77,58; 17,27</t>
+          <t>-80,36; 205,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-79,29; -7,71</t>
+          <t>-84,12; 183,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-83,11; -12,23</t>
+          <t>-80,9; 112,56</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-80,7; 108,14</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-62,25; 132,02</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-6,85</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,98</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-80,96%</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-82,25%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-84,27%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-85,62%</t>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-33,8%</t>
         </is>
       </c>
     </row>
@@ -868,40 +934,50 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 0,0</t>
+          <t>-16,94; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,57; -0,36</t>
+          <t>-17,05; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,12; -0,73</t>
+          <t>-16,06; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; -0,91</t>
+          <t>-16,6; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-13,63; 8,12</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-18,7%</t>
+          <t>-3,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-19,2%</t>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,31%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 3,54</t>
+          <t>-3,8; 3,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 1,15</t>
+          <t>-4,92; 2,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 1,4</t>
+          <t>-4,15; 4,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 1,34</t>
+          <t>-3,49; 4,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,86; 61,31</t>
+          <t>-4,42; 5,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-52,47; 20,38</t>
+          <t>-44,98; 103,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 23,84</t>
+          <t>-53,78; 73,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-50,85; 22,98</t>
+          <t>-45,14; 93,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-40,23; 93,56</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-37,29; 82,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P8_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P8_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,68</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>3,13</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,89</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>38,25%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>10,83%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>60,27%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>47,66%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>20,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.986653958640482</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-1.462977769887659</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.909325490050017</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.918559509891771</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0.6457652573510706</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.3824765455574581</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.1877844841961598</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.2945264337230514</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.2631251315614557</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.06613958690412948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 7,25</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 6,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,63; 9,22</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 9,15</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-4,66; 9,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-43,11; 307,6</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-53,42; 173,98</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-28,63; 320,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-30,65; 256,05</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-38,78; 166,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-3.119440413302401</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-8.075415026188127</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.836785204514812</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.363480542260803</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.018877193817096</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.4310612202020698</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.683317416840476</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4466530241657731</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.4311800889506823</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.4470271202603565</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7.253816711111753</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.809913043273903</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.798644479738908</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.890706093316703</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.089161480335065</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.07603300468093</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.9336206923125765</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.316169856305345</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.961059654562012</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.327172271247139</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,7</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-2,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-9,73%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-22,69%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-1,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; 5,32</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,53; 5,05</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,95; 4,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-10,45; 3,89</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 7,04</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-80,36; 205,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-84,12; 183,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-80,9; 112,56</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-80,7; 108,14</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-62,25; 132,02</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.1282197035879923</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.495640039657268</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.230439137742767</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.689982354570576</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.104121294087511</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.01997793815735044</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.2940139815968573</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.346779181182119</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3341578313465762</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1115653688804865</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,32</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-33,8%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-9.616216922710626</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.01215934730505</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-14.50181867472408</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.89504328527935</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-10.26803732503564</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8036062300641271</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8367374785701054</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8190709707793038</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8294477983783957</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.6446475911780538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-16,94; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-17,05; 0,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,06; 0,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,6; 0,0</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-13,63; 8,12</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.318382534607101</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.231984112035702</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.551213354552833</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.125932289636922</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>5.793453380123269</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.059774014391376</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.414610704866546</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.882627825975343</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.8628858092801802</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.037675982133136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,213 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,21</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>11,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-3,44%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,78%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>8,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-3.406680020647661</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.875897581219768</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-3.432750074906044</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.963687900239226</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-2.038445300881633</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3628970803394158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,8; 3,79</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,92; 2,99</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,15; 4,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; 4,17</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-4,42; 5,34</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-44,98; 103,34</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-53,78; 73,17</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-45,14; 93,68</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-40,23; 93,56</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-37,29; 82,01</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.94299170768281</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.03865679333582</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.06418591473157</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-15.95682351551164</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-14.03797822938355</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>7.793301913276513</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.6509108017170729</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.022379278144833</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.7596181460587506</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.4610149020625676</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.2712414534778385</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1186235668875509</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2668259463517059</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1029371461443983</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.06453200231059304</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.0290603787413909</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.796107059876496</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.28094622699372</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.785441007113015</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.800121543799547</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.36856427897816</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.449793626535214</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.6237587478493651</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5338773961498577</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4932988454409665</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.4409946090707987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.790432548855826</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.622489595022767</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.918015674327215</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.208792702770416</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>4.009393154088055</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.03339796854502</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.4394716770935367</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.6395598247465156</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.6775641119240161</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.619772526572785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1093,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
